--- a/Data Science Course.xlsx
+++ b/Data Science Course.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\github_project\prabhatshankar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE69559-DABF-4281-99F1-BEF88DA0CE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE24ED31-B4BE-47B6-A3DB-FAB9DDCC68F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Science Beginner" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Science Advanced" sheetId="2" r:id="rId2"/>
+    <sheet name="Course Fees" sheetId="3" r:id="rId3"/>
+    <sheet name="User Details" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
   <si>
     <t>Week 1</t>
   </si>
@@ -214,6 +217,72 @@
   </si>
   <si>
     <t>Session 24</t>
+  </si>
+  <si>
+    <t>Course Type</t>
+  </si>
+  <si>
+    <t>Course Fees</t>
+  </si>
+  <si>
+    <t>Course Duration</t>
+  </si>
+  <si>
+    <t>Currently Active</t>
+  </si>
+  <si>
+    <t>Registration Link</t>
+  </si>
+  <si>
+    <t>Data Science Beginner</t>
+  </si>
+  <si>
+    <t>Session Type</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>In Person</t>
+  </si>
+  <si>
+    <t>Data Science Advanced</t>
+  </si>
+  <si>
+    <t>3 Months</t>
+  </si>
+  <si>
+    <t>2 Months</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Register for Classes</t>
+  </si>
+  <si>
+    <t>Register your Interest</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email ID</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Additional Comments</t>
+  </si>
+  <si>
+    <t>Profession</t>
   </si>
 </sst>
 </file>
@@ -291,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -300,6 +369,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -867,4 +943,183 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E42BE15-14DA-43E5-BFD1-47910B0C3DCA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4AE0DD-1048-4486-9112-E21DBF18CA40}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="7">
+        <v>25000</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="7">
+        <v>25000</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="7">
+        <v>30000</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E271320-7CB3-464E-B69F-1231C3DC6BD2}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>